--- a/medicine/Pharmacie/Pharmaco-nutraceutique/Pharmaco-nutraceutique.xlsx
+++ b/medicine/Pharmacie/Pharmaco-nutraceutique/Pharmaco-nutraceutique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La pharmaco-nutraceutique est une approche thérapeutique visant à améliorer la réponse au médicament par l'utilisation d’aliments fonctionnels. Ce concept a récemment été illustré lors d’une étude in vitro combinant les acides gras oméga 3 et l’Ursodiol, réalisée au sein du centre de recherche du CHU de Québec – Université Laval / faculté de pharmacie. Les résultats suggérant les bénéfices d’une telle combinaison dans le traitement notamment des maladies hépatiques cholestatiques et auto-immunes, ont été publiés après révision par les pairs dans le journal  Nutrients[1],[2] ainsi que dans Hepatology[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La pharmaco-nutraceutique est une approche thérapeutique visant à améliorer la réponse au médicament par l'utilisation d’aliments fonctionnels. Ce concept a récemment été illustré lors d’une étude in vitro combinant les acides gras oméga 3 et l’Ursodiol, réalisée au sein du centre de recherche du CHU de Québec – Université Laval / faculté de pharmacie. Les résultats suggérant les bénéfices d’une telle combinaison dans le traitement notamment des maladies hépatiques cholestatiques et auto-immunes, ont été publiés après révision par les pairs dans le journal  Nutrients, ainsi que dans Hepatology.
 </t>
         </is>
       </c>
